--- a/VarCode_Meaning.xlsx
+++ b/VarCode_Meaning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rishabhjain/git/NLSY97-Analysis-R-Prog-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8E3447-5487-1843-9354-74D09A9FC28C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2132DB-4A08-DA43-B70B-CA128D72CAF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{B7924913-9FA0-D544-B0ED-6E1D27225704}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>U1852400</t>
   </si>
@@ -244,6 +244,36 @@
   </si>
   <si>
     <t>debt.30</t>
+  </si>
+  <si>
+    <t>WHAT IS CURRENT HIGHEST GRADE EVER COMPLETED? 2011</t>
+  </si>
+  <si>
+    <t>U1718000</t>
+  </si>
+  <si>
+    <t>TYPE OF BUS OR INDUSTRY CODE (2002 CENSUS 4-DIGIT)</t>
+  </si>
+  <si>
+    <t>PERCENT CHANCE R HAS COLLEGE DEGREE BY 30 YEARS OLD 1997</t>
+  </si>
+  <si>
+    <t>U1719400</t>
+  </si>
+  <si>
+    <t>OCCUPATION/JOB CODE (2002 CENSUS 4-DIGIT) 2017</t>
+  </si>
+  <si>
+    <t>high.grade.completed.11</t>
+  </si>
+  <si>
+    <t>type.business</t>
+  </si>
+  <si>
+    <t>pct.college.30.1997</t>
+  </si>
+  <si>
+    <t>occupation</t>
   </si>
 </sst>
 </file>
@@ -595,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85166C1-D365-1240-AC96-24F603B18A8D}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,6 +913,50 @@
         <v>72</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VarCode_Meaning.xlsx
+++ b/VarCode_Meaning.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rishabhjain/git/NLSY97-Analysis-R-Prog-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rishabhjain/Desktop/R Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2132DB-4A08-DA43-B70B-CA128D72CAF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B7B070-66CC-A942-9402-6AA217212AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{B7924913-9FA0-D544-B0ED-6E1D27225704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
   <si>
     <t>U1852400</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Z9122300</t>
   </si>
   <si>
-    <t>Financial status at age 30</t>
-  </si>
-  <si>
     <t>S6320000</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Z9049800</t>
   </si>
   <si>
-    <t>Financial status at age 25</t>
-  </si>
-  <si>
     <t>U2857300</t>
   </si>
   <si>
@@ -165,12 +159,6 @@
     <t>house.worth.30</t>
   </si>
   <si>
-    <t>fin.stat.30</t>
-  </si>
-  <si>
-    <t>fin.stat.25</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
@@ -246,44 +234,117 @@
     <t>debt.30</t>
   </si>
   <si>
-    <t>WHAT IS CURRENT HIGHEST GRADE EVER COMPLETED? 2011</t>
-  </si>
-  <si>
     <t>U1718000</t>
   </si>
   <si>
     <t>TYPE OF BUS OR INDUSTRY CODE (2002 CENSUS 4-DIGIT)</t>
   </si>
   <si>
-    <t>PERCENT CHANCE R HAS COLLEGE DEGREE BY 30 YEARS OLD 1997</t>
-  </si>
-  <si>
     <t>U1719400</t>
   </si>
   <si>
     <t>OCCUPATION/JOB CODE (2002 CENSUS 4-DIGIT) 2017</t>
   </si>
   <si>
-    <t>high.grade.completed.11</t>
-  </si>
-  <si>
     <t>type.business</t>
   </si>
   <si>
-    <t>pct.college.30.1997</t>
-  </si>
-  <si>
     <t>occupation</t>
+  </si>
+  <si>
+    <t>'U1852400',</t>
+  </si>
+  <si>
+    <t>'R0358900',</t>
+  </si>
+  <si>
+    <t>'Z9122300',</t>
+  </si>
+  <si>
+    <t>'S6320000',</t>
+  </si>
+  <si>
+    <t>'Z9121900',</t>
+  </si>
+  <si>
+    <t>'Z9049800',</t>
+  </si>
+  <si>
+    <t>'U2857300',</t>
+  </si>
+  <si>
+    <t>'R0536300',</t>
+  </si>
+  <si>
+    <t>'R0515100',</t>
+  </si>
+  <si>
+    <t>'R0514700',</t>
+  </si>
+  <si>
+    <t>'T7635800',</t>
+  </si>
+  <si>
+    <t>'T7640000',</t>
+  </si>
+  <si>
+    <t>'T0026000',</t>
+  </si>
+  <si>
+    <t>'T3611600',</t>
+  </si>
+  <si>
+    <t>'U0014800',</t>
+  </si>
+  <si>
+    <t>'T6663100',</t>
+  </si>
+  <si>
+    <t>'U2857200',</t>
+  </si>
+  <si>
+    <t>'Z9049000',</t>
+  </si>
+  <si>
+    <t>'Z9050100',</t>
+  </si>
+  <si>
+    <t>'T6657300',</t>
+  </si>
+  <si>
+    <t>'T6767000',</t>
+  </si>
+  <si>
+    <t>'R0536402',</t>
+  </si>
+  <si>
+    <t>'Z9122500',</t>
+  </si>
+  <si>
+    <t>'U1718000',</t>
+  </si>
+  <si>
+    <t>'U1719400',</t>
+  </si>
+  <si>
+    <t>'U1852400':'marital',</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,13 +370,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -625,11 +698,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85166C1-D365-1240-AC96-24F603B18A8D}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -638,7 +709,7 @@
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,10 +717,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -657,142 +734,220 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="F10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="F11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="F13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -802,162 +957,187 @@
       <c r="C15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="F22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
         <v>74</v>
       </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>82</v>
+      <c r="F25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>